--- a/config_10.19/activity_exchange_server.xlsx
+++ b/config_10.19/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="411">
   <si>
     <t>id|</t>
   </si>
@@ -1733,10 +1733,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>actp_prop_exchange_nor_v5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_prop_exchange_nor</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2044,6 +2040,22 @@
   </si>
   <si>
     <t>"prop_tiny_game_coin",</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_v5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_v4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_v3</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2238,7 +2250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2425,6 +2437,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2705,9 +2720,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4615,7 +4630,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C60" s="61" t="s">
         <v>83</v>
@@ -5188,10 +5203,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" s="64" t="s">
         <v>378</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -5207,10 +5222,10 @@
   <dimension ref="A1:P401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B355" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B361" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K375" sqref="K375"/>
+      <selection pane="bottomRight" activeCell="F373" sqref="F373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13911,8 +13926,8 @@
       <c r="C339" s="11">
         <v>4</v>
       </c>
-      <c r="D339" s="27" t="s">
-        <v>317</v>
+      <c r="D339" s="64" t="s">
+        <v>407</v>
       </c>
       <c r="E339" s="11" t="s">
         <v>218</v>
@@ -14574,8 +14589,8 @@
       <c r="C366" s="1">
         <v>1</v>
       </c>
-      <c r="D366" s="19" t="s">
-        <v>375</v>
+      <c r="D366" s="65" t="s">
+        <v>408</v>
       </c>
       <c r="F366" s="27" t="s">
         <v>172</v>
@@ -14600,8 +14615,8 @@
       <c r="C367" s="1">
         <v>2</v>
       </c>
-      <c r="D367" s="27" t="s">
-        <v>320</v>
+      <c r="D367" s="65" t="s">
+        <v>409</v>
       </c>
       <c r="F367" s="27" t="s">
         <v>172</v>
@@ -14626,8 +14641,8 @@
       <c r="C368" s="1">
         <v>3</v>
       </c>
-      <c r="D368" s="27" t="s">
-        <v>323</v>
+      <c r="D368" s="65" t="s">
+        <v>410</v>
       </c>
       <c r="F368" s="27" t="s">
         <v>167</v>
@@ -14649,9 +14664,7 @@
       <c r="C369" s="1">
         <v>4</v>
       </c>
-      <c r="D369" s="27" t="s">
-        <v>317</v>
-      </c>
+      <c r="D369" s="27"/>
       <c r="F369" s="27" t="s">
         <v>172</v>
       </c>
@@ -14675,9 +14688,7 @@
       <c r="C370" s="1">
         <v>5</v>
       </c>
-      <c r="D370" s="27" t="s">
-        <v>317</v>
-      </c>
+      <c r="D370" s="64"/>
       <c r="F370" s="27" t="s">
         <v>167</v>
       </c>
@@ -14698,9 +14709,7 @@
       <c r="C371" s="1">
         <v>6</v>
       </c>
-      <c r="D371" s="27" t="s">
-        <v>317</v>
-      </c>
+      <c r="D371" s="27"/>
       <c r="F371" s="27" t="s">
         <v>172</v>
       </c>
@@ -14724,11 +14733,9 @@
       <c r="C372" s="1">
         <v>7</v>
       </c>
-      <c r="D372" s="27" t="s">
-        <v>317</v>
-      </c>
+      <c r="D372" s="27"/>
       <c r="F372" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>242</v>
@@ -14750,9 +14757,7 @@
       <c r="C373" s="1">
         <v>8</v>
       </c>
-      <c r="D373" s="27" t="s">
-        <v>317</v>
-      </c>
+      <c r="D373" s="27"/>
       <c r="F373" s="27" t="s">
         <v>172</v>
       </c>
@@ -14776,11 +14781,9 @@
       <c r="C374" s="1">
         <v>9</v>
       </c>
-      <c r="D374" s="27" t="s">
-        <v>317</v>
-      </c>
+      <c r="D374" s="27"/>
       <c r="F374" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>169</v>
@@ -14802,9 +14805,7 @@
       <c r="C375" s="1">
         <v>10</v>
       </c>
-      <c r="D375" s="27" t="s">
-        <v>317</v>
-      </c>
+      <c r="D375" s="27"/>
       <c r="F375" s="27" t="s">
         <v>172</v>
       </c>
@@ -14852,7 +14853,7 @@
         <v>2</v>
       </c>
       <c r="D377" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>311</v>
@@ -14875,7 +14876,7 @@
         <v>3</v>
       </c>
       <c r="D378" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>312</v>
@@ -15022,7 +15023,7 @@
         <v>317</v>
       </c>
       <c r="F384" s="59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G384" s="58" t="s">
         <v>350</v>
@@ -15086,10 +15087,10 @@
         <v>3</v>
       </c>
       <c r="D386" s="58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F386" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G386" s="58" t="s">
         <v>169</v>
@@ -15124,7 +15125,7 @@
         <v>317</v>
       </c>
       <c r="F387" s="59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G387" s="58" t="s">
         <v>168</v>
@@ -15159,7 +15160,7 @@
         <v>317</v>
       </c>
       <c r="F388" s="59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G388" s="58" t="s">
         <v>256</v>
@@ -15360,16 +15361,16 @@
         <v>1</v>
       </c>
       <c r="D394" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F394" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G394" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H394" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J394" s="1">
         <v>2</v>
@@ -15389,13 +15390,13 @@
         <v>317</v>
       </c>
       <c r="F395" s="60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G395" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H395" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J395" s="1">
         <v>2</v>
@@ -15415,13 +15416,13 @@
         <v>317</v>
       </c>
       <c r="F396" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G396" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H396" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J396" s="1">
         <v>2</v>
@@ -15441,13 +15442,13 @@
         <v>317</v>
       </c>
       <c r="F397" s="60" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G397" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H397" s="60" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="398" spans="1:15">
@@ -15464,13 +15465,13 @@
         <v>317</v>
       </c>
       <c r="F398" s="60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G398" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H398" s="60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J398" s="1">
         <v>1</v>
@@ -15490,13 +15491,13 @@
         <v>317</v>
       </c>
       <c r="F399" s="60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G399" s="60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H399" s="60" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J399" s="1">
         <v>1</v>
@@ -15516,13 +15517,13 @@
         <v>317</v>
       </c>
       <c r="F400" s="60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G400" s="60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H400" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J400" s="1">
         <v>1</v>
@@ -15539,13 +15540,13 @@
         <v>8</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E401" s="60" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H401" s="60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J401" s="1">
         <v>1</v>
